--- a/analysis/analysis.xlsx
+++ b/analysis/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Documents/School/2022/Methods/PSMT/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{999BAD09-0E35-C444-B53F-306ADD42A546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EFBE2705-63FF-DC46-996A-8769A988FC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7480" yWindow="1920" windowWidth="26220" windowHeight="17440"/>
+    <workbookView xWindow="5000" yWindow="1920" windowWidth="26220" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="points" sheetId="1" r:id="rId1"/>
@@ -1073,6 +1073,2385 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Section H</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1402166900590161"/>
+                  <c:y val="-0.13166145327983048"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>points!$A$927:$A$1263</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="337"/>
+                <c:pt idx="0">
+                  <c:v>926</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>927</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>938</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>939</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>942</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>947</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>948</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>956</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>958</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>963</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>964</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>979</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1006</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1013</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1022</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1034</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1037</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1038</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1042</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1043</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1044</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1045</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1047</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1048</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1049</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1052</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1053</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1054</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1055</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1056</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1058</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1059</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1062</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1063</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1064</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1065</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1066</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1067</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1068</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1069</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1071</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1072</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1073</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1074</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1075</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1076</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1077</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1078</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1079</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1083</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1084</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1086</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1087</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1088</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1091</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1092</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1093</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1094</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1095</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1097</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1098</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1099</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1102</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1103</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1104</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1105</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1106</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1107</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1108</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1109</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1111</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1112</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1113</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1114</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1115</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1116</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1117</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1118</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1119</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1121</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1122</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1123</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1124</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1125</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1126</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1127</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1129</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1131</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1132</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1133</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1134</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1135</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1136</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1137</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1139</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1141</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1142</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1143</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1144</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1145</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1146</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1147</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1148</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1149</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1151</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1153</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1154</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1155</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1156</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1157</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1158</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1159</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1161</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1162</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1163</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1164</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1165</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1166</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1167</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1168</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1169</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1171</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1172</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1173</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1174</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1175</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1176</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1177</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1178</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1181</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1182</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1183</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1184</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1185</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1186</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1187</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1188</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1189</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1191</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1192</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1193</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1194</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1195</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1196</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1197</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1198</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1199</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1202</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1203</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1204</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1205</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1206</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1207</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1209</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1211</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1212</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1213</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1214</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1215</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1217</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1218</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1219</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1221</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1222</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1223</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1224</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1226</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1227</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1228</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1229</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1231</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1232</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1233</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1235</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1236</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1237</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1238</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1239</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1241</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>1242</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>1243</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>1244</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1245</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>1246</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>1247</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>1248</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>1249</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>1251</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>1252</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>1253</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>1254</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>1255</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>1256</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>1257</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>1258</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1259</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1261</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>1262</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>points!$B$927:$B$1263</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="337"/>
+                <c:pt idx="0">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F0B1-BE4B-AFFE-1BC68B63A4F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="723941760"/>
+        <c:axId val="723943408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="723941760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="723943408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="723943408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="723941760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -2291,6 +4670,51 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>points!$A$1:$A$181</c:f>
@@ -8987,6 +11411,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.7682217207420569E-3"/>
+                  <c:y val="0.2516909776385407"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>points!$A$182:$A$467</c:f>
@@ -10957,6 +13432,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -10968,10 +13463,72 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="25400">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>points!$A$468:$A$606</c:f>
@@ -12850,12 +15407,34 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -12909,7 +15488,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Section C</a:t>
+              <a:t>Section D</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -12974,854 +15553,851 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>points!$A$468:$A$606</c:f>
+              <c:f>points!$A$607:$A$737</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="0">
-                  <c:v>467</c:v>
+                  <c:v>606</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>468</c:v>
+                  <c:v>607</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>469</c:v>
+                  <c:v>608</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>470</c:v>
+                  <c:v>609</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>471</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>472</c:v>
+                  <c:v>611</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>473</c:v>
+                  <c:v>612</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>474</c:v>
+                  <c:v>613</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>475</c:v>
+                  <c:v>614</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>476</c:v>
+                  <c:v>615</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>477</c:v>
+                  <c:v>616</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>478</c:v>
+                  <c:v>617</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>479</c:v>
+                  <c:v>618</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>480</c:v>
+                  <c:v>619</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>481</c:v>
+                  <c:v>620</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>482</c:v>
+                  <c:v>621</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>483</c:v>
+                  <c:v>622</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>484</c:v>
+                  <c:v>623</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>485</c:v>
+                  <c:v>624</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>486</c:v>
+                  <c:v>625</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>487</c:v>
+                  <c:v>626</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>488</c:v>
+                  <c:v>627</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>489</c:v>
+                  <c:v>628</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>490</c:v>
+                  <c:v>629</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>491</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>492</c:v>
+                  <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>493</c:v>
+                  <c:v>632</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>494</c:v>
+                  <c:v>633</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>495</c:v>
+                  <c:v>634</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>496</c:v>
+                  <c:v>635</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>497</c:v>
+                  <c:v>636</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>498</c:v>
+                  <c:v>637</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>499</c:v>
+                  <c:v>638</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>500</c:v>
+                  <c:v>639</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>501</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>502</c:v>
+                  <c:v>641</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>503</c:v>
+                  <c:v>642</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>504</c:v>
+                  <c:v>643</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>505</c:v>
+                  <c:v>644</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>506</c:v>
+                  <c:v>645</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>507</c:v>
+                  <c:v>646</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>508</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>509</c:v>
+                  <c:v>648</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>510</c:v>
+                  <c:v>649</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>511</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>512</c:v>
+                  <c:v>651</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>513</c:v>
+                  <c:v>652</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>514</c:v>
+                  <c:v>653</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>515</c:v>
+                  <c:v>654</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>516</c:v>
+                  <c:v>655</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>517</c:v>
+                  <c:v>656</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>518</c:v>
+                  <c:v>657</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>519</c:v>
+                  <c:v>658</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>520</c:v>
+                  <c:v>659</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>521</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>522</c:v>
+                  <c:v>661</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>523</c:v>
+                  <c:v>662</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>524</c:v>
+                  <c:v>663</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>525</c:v>
+                  <c:v>664</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>526</c:v>
+                  <c:v>665</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>527</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>528</c:v>
+                  <c:v>667</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>529</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>530</c:v>
+                  <c:v>669</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>531</c:v>
+                  <c:v>670</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>532</c:v>
+                  <c:v>671</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>533</c:v>
+                  <c:v>672</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>534</c:v>
+                  <c:v>673</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>535</c:v>
+                  <c:v>674</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>536</c:v>
+                  <c:v>675</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>537</c:v>
+                  <c:v>676</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>538</c:v>
+                  <c:v>677</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>539</c:v>
+                  <c:v>678</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>540</c:v>
+                  <c:v>679</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>541</c:v>
+                  <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>542</c:v>
+                  <c:v>681</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>543</c:v>
+                  <c:v>682</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>544</c:v>
+                  <c:v>683</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>545</c:v>
+                  <c:v>684</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>546</c:v>
+                  <c:v>685</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>547</c:v>
+                  <c:v>686</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>548</c:v>
+                  <c:v>687</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>549</c:v>
+                  <c:v>688</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>550</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>551</c:v>
+                  <c:v>690</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>552</c:v>
+                  <c:v>691</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>553</c:v>
+                  <c:v>692</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>554</c:v>
+                  <c:v>693</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>555</c:v>
+                  <c:v>694</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>556</c:v>
+                  <c:v>695</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>557</c:v>
+                  <c:v>696</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>558</c:v>
+                  <c:v>697</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>559</c:v>
+                  <c:v>698</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>560</c:v>
+                  <c:v>699</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>561</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>562</c:v>
+                  <c:v>701</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>563</c:v>
+                  <c:v>702</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>564</c:v>
+                  <c:v>703</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>565</c:v>
+                  <c:v>704</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>566</c:v>
+                  <c:v>705</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>567</c:v>
+                  <c:v>706</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>568</c:v>
+                  <c:v>707</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>569</c:v>
+                  <c:v>708</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>570</c:v>
+                  <c:v>709</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>571</c:v>
+                  <c:v>710</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>572</c:v>
+                  <c:v>711</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>573</c:v>
+                  <c:v>712</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>574</c:v>
+                  <c:v>713</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>575</c:v>
+                  <c:v>714</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>576</c:v>
+                  <c:v>715</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>577</c:v>
+                  <c:v>716</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>578</c:v>
+                  <c:v>717</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>579</c:v>
+                  <c:v>718</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>580</c:v>
+                  <c:v>719</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>581</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>582</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>583</c:v>
+                  <c:v>722</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>584</c:v>
+                  <c:v>723</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>585</c:v>
+                  <c:v>724</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>586</c:v>
+                  <c:v>725</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>587</c:v>
+                  <c:v>726</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>588</c:v>
+                  <c:v>727</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>589</c:v>
+                  <c:v>728</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>590</c:v>
+                  <c:v>729</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>591</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>592</c:v>
+                  <c:v>731</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>593</c:v>
+                  <c:v>732</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>594</c:v>
+                  <c:v>733</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>595</c:v>
+                  <c:v>734</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>596</c:v>
+                  <c:v>735</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>597</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>598</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>599</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>601</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>602</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>603</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>604</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>605</c:v>
+                  <c:v>736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>points!$B$468:$B$606</c:f>
+              <c:f>points!$B$607:$B$737</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="0">
-                  <c:v>538</c:v>
+                  <c:v>747</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>538</c:v>
+                  <c:v>747</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>538</c:v>
+                  <c:v>747</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>538</c:v>
+                  <c:v>747</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>538</c:v>
+                  <c:v>746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>538</c:v>
+                  <c:v>746</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>538</c:v>
+                  <c:v>746</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>538</c:v>
+                  <c:v>745</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>537</c:v>
+                  <c:v>745</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>537</c:v>
+                  <c:v>744</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>536</c:v>
+                  <c:v>744</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>535</c:v>
+                  <c:v>743</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>535</c:v>
+                  <c:v>742</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>534</c:v>
+                  <c:v>741</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>534</c:v>
+                  <c:v>740</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>534</c:v>
+                  <c:v>738</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>534</c:v>
+                  <c:v>733</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>534</c:v>
+                  <c:v>728</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>534</c:v>
+                  <c:v>724</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>534</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>534</c:v>
+                  <c:v>719</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>534</c:v>
+                  <c:v>717</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>535</c:v>
+                  <c:v>714</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>536</c:v>
+                  <c:v>712</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>537</c:v>
+                  <c:v>708</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>538</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>539</c:v>
+                  <c:v>699</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>540</c:v>
+                  <c:v>697</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>541</c:v>
+                  <c:v>696</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>542</c:v>
+                  <c:v>695</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>543</c:v>
+                  <c:v>693</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>544</c:v>
+                  <c:v>691</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>545</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>546</c:v>
+                  <c:v>686</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>547</c:v>
+                  <c:v>682</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>548</c:v>
+                  <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>549</c:v>
+                  <c:v>679</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>552</c:v>
+                  <c:v>677</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>554</c:v>
+                  <c:v>675</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>555</c:v>
+                  <c:v>673</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>557</c:v>
+                  <c:v>670</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>558</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>559</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>560</c:v>
+                  <c:v>665</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>560</c:v>
+                  <c:v>664</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>562</c:v>
+                  <c:v>664</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>562</c:v>
+                  <c:v>663</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>564</c:v>
+                  <c:v>662</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>566</c:v>
+                  <c:v>662</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>568</c:v>
+                  <c:v>661</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>571</c:v>
+                  <c:v>661</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>574</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>575</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>577</c:v>
+                  <c:v>662</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>578</c:v>
+                  <c:v>663</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>579</c:v>
+                  <c:v>664</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>580</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>582</c:v>
+                  <c:v>670</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>584</c:v>
+                  <c:v>674</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>587</c:v>
+                  <c:v>676</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>590</c:v>
+                  <c:v>678</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>592</c:v>
+                  <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>594</c:v>
+                  <c:v>682</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>595</c:v>
+                  <c:v>683</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>596</c:v>
+                  <c:v>685</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>599</c:v>
+                  <c:v>686</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>602</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>605</c:v>
+                  <c:v>697</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>608</c:v>
+                  <c:v>703</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>610</c:v>
+                  <c:v>707</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>612</c:v>
+                  <c:v>709</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>613</c:v>
+                  <c:v>711</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>615</c:v>
+                  <c:v>726</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>617</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>619</c:v>
+                  <c:v>732</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>620</c:v>
+                  <c:v>733</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>622</c:v>
+                  <c:v>736</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>625</c:v>
+                  <c:v>738</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>632</c:v>
+                  <c:v>740</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>637</c:v>
+                  <c:v>743</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>639</c:v>
+                  <c:v>748</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>641</c:v>
+                  <c:v>753</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>643</c:v>
+                  <c:v>755</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>645</c:v>
+                  <c:v>767</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>646</c:v>
+                  <c:v>771</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>648</c:v>
+                  <c:v>773</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>651</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>656</c:v>
+                  <c:v>791</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>660</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>663</c:v>
+                  <c:v>798</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>665</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>667</c:v>
+                  <c:v>802</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>671</c:v>
+                  <c:v>804</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>675</c:v>
+                  <c:v>806</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>678</c:v>
+                  <c:v>808</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>679</c:v>
+                  <c:v>811</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>681</c:v>
+                  <c:v>814</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>682</c:v>
+                  <c:v>817</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>684</c:v>
+                  <c:v>822</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>688</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>691</c:v>
+                  <c:v>827</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>693</c:v>
+                  <c:v>829</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>695</c:v>
+                  <c:v>831</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>697</c:v>
+                  <c:v>833</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>699</c:v>
+                  <c:v>834</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>704</c:v>
+                  <c:v>836</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>707</c:v>
+                  <c:v>837</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>709</c:v>
+                  <c:v>839</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>710</c:v>
+                  <c:v>840</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>711</c:v>
+                  <c:v>841</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>712</c:v>
+                  <c:v>842</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>713</c:v>
+                  <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>714</c:v>
+                  <c:v>845</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>717</c:v>
+                  <c:v>846</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>719</c:v>
+                  <c:v>848</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>721</c:v>
+                  <c:v>851</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>722</c:v>
+                  <c:v>853</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>724</c:v>
+                  <c:v>854</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>726</c:v>
+                  <c:v>855</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>727</c:v>
+                  <c:v>856</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>730</c:v>
+                  <c:v>857</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>732</c:v>
+                  <c:v>858</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>733</c:v>
+                  <c:v>859</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>734</c:v>
+                  <c:v>860</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>735</c:v>
+                  <c:v>861</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>736</c:v>
+                  <c:v>861</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>737</c:v>
+                  <c:v>862</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>738</c:v>
+                  <c:v>862</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>738</c:v>
+                  <c:v>862</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>739</c:v>
+                  <c:v>863</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>741</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>742</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>743</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>744</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>744</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>745</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>746</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>746</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>747</c:v>
+                  <c:v>863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13830,6 +16406,2193 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8D64-6F4C-894F-2E1D80CCBF32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="723941760"/>
+        <c:axId val="723943408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="723941760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="723943408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="723943408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="723941760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Section E</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>points!$A$738:$A$775</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>738</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>742</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>758</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>points!$B$738:$B$775</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>862</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>856</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>852</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>842</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>758</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>723</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>696</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>617</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2D13-6E49-84DE-C3EC5DD7DFA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="723941760"/>
+        <c:axId val="723943408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="723941760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="723943408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="723943408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="723941760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Section F</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>points!$A$776:$A$871</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>788</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>807</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>812</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>813</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>814</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>815</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>818</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>824</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>826</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>829</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>833</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>834</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>838</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>839</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>842</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>847</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>852</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>853</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>856</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>857</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>859</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>862</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>866</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>869</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>870</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>points!$B$776:$B$871</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>638</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>659</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>662</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E346-4843-9793-C83A8E9F5618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="723941760"/>
+        <c:axId val="723943408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="723941760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="723943408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="723943408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="723941760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Section G</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>points!$A$872:$A$926</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>873</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>876</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>877</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>879</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>882</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>883</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>884</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>886</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>887</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>889</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>891</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>892</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>893</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>894</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>895</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>897</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>898</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>899</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>904</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>905</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>906</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>907</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>909</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>914</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>922</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>923</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>924</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>points!$B$872:$B$926</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>659</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>659</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>617</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>322</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C36B-4F4A-9474-EC0F55F21630}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14054,6 +18817,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -14214,7 +19017,683 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16794,6 +22273,2070 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -17011,6 +24554,158 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>398721</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>177209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>794569</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>89674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70AFABFD-A338-8E42-B29E-1DEB83C8CFB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>450273</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>50973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14849</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>171256</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C956091-6197-F743-B29D-1EFAEA9415D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>59267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>21776</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>179550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7C25FAB-5073-294F-A8A5-576F488B9DBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>537986</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>8819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>102562</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>129102</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE7D7BF-CE01-904C-A0DC-3271327912B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17318,8 +25013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B162" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K171" sqref="K171"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="50" workbookViewId="0">
+      <selection activeCell="M171" sqref="M171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/analysis/analysis.xlsx
+++ b/analysis/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Documents/School/2022/Methods/PSMT/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EFBE2705-63FF-DC46-996A-8769A988FC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{853AE885-E0CF-A34C-BDF0-7EBABCD52FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="1920" windowWidth="26220" windowHeight="17440"/>
+    <workbookView xWindow="4520" yWindow="1320" windowWidth="26220" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="points" sheetId="1" r:id="rId1"/>
